--- a/Documents/기능정의서.xlsx
+++ b/Documents/기능정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\25기_하태민_출판사_기능정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Publisher_Portfolio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D90B0-0938-405A-AFE5-219EA750082B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825FEA5C-BC39-4C37-9A05-A8CEE15E204E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능정의서" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,158 +82,445 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입 페이지로 이동.
 - url : agree_form</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 페이지로 이동.
-- url : login_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 탭 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판 된 책 목록
-- 양 방향 아이콘으로 슬라이드 이동.
-- 책 클릭 시 책 소개 페이지로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 상단
-회원 가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 상단
-로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사소개 페이지로 이동.
-- url : company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료실 페이지로 이동.
-- url : pds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문답변 페이지로 이동.
-- url : ans_board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상 강의 페이지로 이동.
-- url : online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상 강의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서명, 저자 등 검색.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 상단
-마이 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 상단
-로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 / 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항/이벤트
-- 가장 최근의 공지사항/이벤트를 출력.
-- 오른쪽 상단 + 아이콘 클릭 시 공지사항/이벤트 페이지로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 블로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이스북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스타그램</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사 페이스북 페이지로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사 네이버 블로그 페이지로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 로고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 페이지로 이동.
 - url : index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우측 상단
-관리 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원 가입 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력 (최소 5, 최대 15자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 (최소 8, 최대 18자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스가 활성화 된 경우 다음 로그인 할 때 아이디가 저장됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 페이지로 이동.
+- url : id_find_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 페이지로 이동.
+- url : pwd_find_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 (최대 40자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 입력 (6자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관 및 개인정보취급방침 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 약관 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침 동의.
+- 개인정보취급방침 동의 여부 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관 동의.
+- 이용 약관 동의 여부 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 약관 동의
+- 이용 약관, 개인정보취급방침 동의 여부 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 버튼
+- 전체 동의 하지 않는 경우 : 확인 버튼 비활성화.
+- 전체 동의 한 경우 : 확인 버튼 활성화, 정보입력 페이지로 이동.
+- url : join_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 기본정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-gnb-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-gnb-02</t>
+  </si>
+  <si>
+    <t>PS-front-gnb-03</t>
+  </si>
+  <si>
+    <t>PS-front-gnb-04</t>
+  </si>
+  <si>
+    <t>PS-front-gnb-05</t>
+  </si>
+  <si>
+    <t>PS-front-gnb-06</t>
+  </si>
+  <si>
+    <t>PS-front-sign-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-sign-02</t>
+  </si>
+  <si>
+    <t>PS-front-sign-03</t>
+  </si>
+  <si>
+    <t>PS-front-sign-05</t>
+  </si>
+  <si>
+    <t>PS-front-sign-06</t>
+  </si>
+  <si>
+    <t>PS-front-sign-07</t>
+  </si>
+  <si>
+    <t>PS-front-findid-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-findid-02</t>
+  </si>
+  <si>
+    <t>PS-front-findid-03</t>
+  </si>
+  <si>
+    <t>PS-front-findid-04</t>
+  </si>
+  <si>
+    <t>PS-front-findid-05</t>
+  </si>
+  <si>
+    <t>PS-front-findpwd-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-findpwd-02</t>
+  </si>
+  <si>
+    <t>PS-front-findpwd-03</t>
+  </si>
+  <si>
+    <t>PS-front-findpwd-04</t>
+  </si>
+  <si>
+    <t>PS-front-findpwd-05</t>
+  </si>
+  <si>
+    <t>PS-front-findpwd-06</t>
+  </si>
+  <si>
+    <t>PS-front-join-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join-02</t>
+  </si>
+  <si>
+    <t>PS-front-join-03</t>
+  </si>
+  <si>
+    <t>PS-front-join-04</t>
+  </si>
+  <si>
+    <t>PS-front-join-05</t>
+  </si>
+  <si>
+    <t>PS-front-join-06</t>
+  </si>
+  <si>
+    <t>PS-front-join-07</t>
+  </si>
+  <si>
+    <t>PS-front-join-08</t>
+  </si>
+  <si>
+    <t>PS-front-join-09</t>
+  </si>
+  <si>
+    <t>PS-front-join-10</t>
+  </si>
+  <si>
+    <t>PS-front-join-11</t>
+  </si>
+  <si>
+    <t>PS-front-join-12</t>
+  </si>
+  <si>
+    <t>PS-front-join-13</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지로 이동.
+- url : index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join-14</t>
+  </si>
+  <si>
+    <t>가입 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력 (최소 5, 최대 15자)
+영문, 숫자 조합으로, 5~15자 이내로 작성
+대소문자 구별, 한글, 특수문자 사용 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 버튼
+- 올바른 정보가 입력 된 경우 : 정상적으로 로그인 성공.
+- 잘못 입력된 경우 : 오류 팝업 메시지 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청 버튼
+- 올바른 정보가 입력 된 경우 : 이메일로 인증번호 전송.
+- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 버튼
+- 올바른 정보가 입력 된 경우 : 아이디 출력 페이지로 이동.
+- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 버튼
+- 올바른 정보가 입력 된 경우 : 임시 비밀번호 출력 페이지로 이동.
+- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 (최대 40자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복확인 버튼
+- 올바른 정보가 입력 된 경우 : 정상 팝업 메시지 출력.
+- 이미 정보가 있는 경우, 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문, 숫자, 특수문자 조합 필수
+8자 ~ 18자 이내로 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 버튼
+- 메인 페이지로 이동
+- url : index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 버튼
+- 올바른 정보가 입력 된 경우 : 가입 완료 페이지로 이동.
+- url : join_ok
+- 잘못 입력된 경우 : 오류 팝업 메시지 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 완료 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join-15</t>
+  </si>
+  <si>
+    <t>홈으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈으로 버튼
+- 메인 페이지로 이동
+- url : index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 탭 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGO
+ - 메인 페이지로 이동.
+ - URL : index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">회원가입
+ - 회원가입 페이지로 이동.
+ - URL : agree_form.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(회원)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 마이페이지
+ - 마이페이지로 이동.
+ - URL : alt_user.html
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -254,144 +541,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 관리자 페이지로 이동.
-- url : admin_page</t>
+      <t xml:space="preserve"> 관리페이지
+ - 관리페이지로 이동.
+ - URL : admin.html</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회원 가입 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력 (최소 5, 최대 15자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력 (최소 8, 최대 18자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크박스가 활성화 된 경우 다음 로그인 할 때 아이디가 저장됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기 페이지로 이동.
-- url : id_find_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기 페이지로 이동.
-- url : pwd_find_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력 (최대 40자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 입력 (6자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관 및 개인정보취급방침 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 약관 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 약관 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침 동의.
-- 개인정보취급방침 동의 여부 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 약관 동의.
-- 이용 약관 동의 여부 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 약관 동의
-- 이용 약관, 개인정보취급방침 동의 여부 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼
-- 전체 동의 하지 않는 경우 : 확인 버튼 비활성화.
-- 전체 동의 한 경우 : 확인 버튼 활성화, 정보입력 페이지로 이동.
-- url : join_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">로그인
+ - 로그인 페이지로 이동.
+ - URL : login_form.html
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -402,7 +564,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(사용자) </t>
+      <t>(회원, 관리자)</t>
     </r>
     <r>
       <rPr>
@@ -412,313 +574,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>마이 페이지로 이동.
-- url : my_page</t>
+      <t xml:space="preserve"> 로그아웃</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(사용자)(관리자) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그아웃 기능.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 기본정보 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-gnb-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-gnb-02</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-03</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-04</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-05</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-06</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-07</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-08</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-09</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-10</t>
-  </si>
-  <si>
-    <t>PS-front-gnb-11</t>
-  </si>
-  <si>
-    <t>PS-front-main-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-main-02</t>
-  </si>
-  <si>
-    <t>PS-front-main-03</t>
-  </si>
-  <si>
-    <t>PS-front-main-04</t>
-  </si>
-  <si>
-    <t>PS-front-main-05</t>
-  </si>
-  <si>
-    <t>PS-front-sign-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-sign-02</t>
-  </si>
-  <si>
-    <t>PS-front-sign-03</t>
+    <t>상단 탭 메뉴
+ - 각 메뉴 페이지로 이동.
+ - URL : company.html (회사소개)
+ - URL : books.html (도서)
+ - URL : pds.html (자료실)
+ - URL : ans.html (질문답변)
+ - URL : online.html (동영상 강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 및 주소, 연락처, 저작권 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 창
+ - 도서명, 저자 등 검색.
+ - 검색 결과(도서, 자료실, 동영상 강의) 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front_main-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front_main-02</t>
+  </si>
+  <si>
+    <t>PS-front_main-03</t>
+  </si>
+  <si>
+    <t>PS-front_main-04</t>
   </si>
   <si>
     <t>PS-front-sign-04</t>
-  </si>
-  <si>
-    <t>PS-front-sign-05</t>
-  </si>
-  <si>
-    <t>PS-front-sign-06</t>
-  </si>
-  <si>
-    <t>PS-front-sign-07</t>
-  </si>
-  <si>
-    <t>PS-front-findid-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-findid-02</t>
-  </si>
-  <si>
-    <t>PS-front-findid-03</t>
-  </si>
-  <si>
-    <t>PS-front-findid-04</t>
-  </si>
-  <si>
-    <t>PS-front-findid-05</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-findpwd-02</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-03</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-04</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-05</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-06</t>
-  </si>
-  <si>
-    <t>PS-front-join-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-join-02</t>
-  </si>
-  <si>
-    <t>PS-front-join-03</t>
-  </si>
-  <si>
-    <t>PS-front-join-04</t>
-  </si>
-  <si>
-    <t>PS-front-join-05</t>
-  </si>
-  <si>
-    <t>PS-front-join-06</t>
-  </si>
-  <si>
-    <t>PS-front-join-07</t>
-  </si>
-  <si>
-    <t>PS-front-join-08</t>
-  </si>
-  <si>
-    <t>PS-front-join-09</t>
-  </si>
-  <si>
-    <t>PS-front-join-10</t>
-  </si>
-  <si>
-    <t>PS-front-join-11</t>
-  </si>
-  <si>
-    <t>PS-front-join-12</t>
-  </si>
-  <si>
-    <t>PS-front-join-13</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지로 이동.
-- url : index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-join-14</t>
-  </si>
-  <si>
-    <t>가입 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력 (최소 5, 최대 15자)
-영문, 숫자 조합으로, 5~15자 이내로 작성
-대소문자 구별, 한글, 특수문자 사용 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 버튼
-- 올바른 정보가 입력 된 경우 : 정상적으로 로그인 성공.
-- 잘못 입력된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사 인스타그램 페이지로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증요청 버튼
-- 올바른 정보가 입력 된 경우 : 이메일로 인증번호 전송.
-- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기 버튼
-- 올바른 정보가 입력 된 경우 : 아이디 출력 페이지로 이동.
-- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기 버튼
-- 올바른 정보가 입력 된 경우 : 임시 비밀번호 출력 페이지로 이동.
-- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력 (최대 40자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복확인 버튼
-- 올바른 정보가 입력 된 경우 : 정상 팝업 메시지 출력.
-- 이미 정보가 있는 경우, 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문, 숫자, 특수문자 조합 필수
-8자 ~ 18자 이내로 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소 버튼
-- 메인 페이지로 이동
-- url : index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼
-- 올바른 정보가 입력 된 경우 : 가입 완료 페이지로 이동.
-- url : join_ok
-- 잘못 입력된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입 완료 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-join-15</t>
-  </si>
-  <si>
-    <t>홈으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈으로 버튼
-- 메인 페이지로 이동
-- url : index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 소개
+ - 좌, 우 버튼으로 슬라이드 이동.
+ - 표지 클릭 시 도서 상세 페이지로 이동.
+ - URL : books_cnt.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,13 +1006,13 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
     <col min="9" max="11" width="11.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="59.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="64.5" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1171,413 +1072,181 @@
       <c r="L3" s="8"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="M5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="M6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="M7" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="M8" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="M9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1585,19 +1254,19 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1605,19 +1274,19 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -1625,19 +1294,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1645,19 +1314,19 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1665,19 +1334,19 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1685,19 +1354,19 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1705,19 +1374,19 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
@@ -1725,19 +1394,19 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -1745,19 +1414,19 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -1765,19 +1434,19 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1785,19 +1454,19 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -1805,19 +1474,19 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
@@ -1825,19 +1494,19 @@
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -1845,19 +1514,19 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -1865,19 +1534,19 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -1885,19 +1554,19 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1905,19 +1574,19 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1925,19 +1594,19 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1945,19 +1614,19 @@
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1965,19 +1634,19 @@
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="66" x14ac:dyDescent="0.3">
@@ -1985,19 +1654,19 @@
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -2005,19 +1674,19 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -2025,19 +1694,19 @@
         <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -2045,19 +1714,19 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
@@ -2065,19 +1734,19 @@
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -2085,19 +1754,19 @@
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -2105,19 +1774,19 @@
         <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -2125,19 +1794,19 @@
         <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="66" x14ac:dyDescent="0.3">
@@ -2145,19 +1814,19 @@
         <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -2165,19 +1834,19 @@
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
@@ -2185,19 +1854,19 @@
         <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -2205,19 +1874,19 @@
         <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/기능정의서.xlsx
+++ b/Documents/기능정의서.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Publisher_Portfolio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825FEA5C-BC39-4C37-9A05-A8CEE15E204E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B32701-CDD5-4990-95F7-108E7F5552DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5925" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능정의서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,152 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 페이지로 이동.
-- url : agree_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지로 이동.
-- url : index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회원 가입 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력 (최소 5, 최대 15자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력 (최소 8, 최대 18자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크박스가 활성화 된 경우 다음 로그인 할 때 아이디가 저장됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기 페이지로 이동.
-- url : id_find_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기 페이지로 이동.
-- url : pwd_find_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력 (최대 40자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 입력 (6자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관 및 개인정보취급방침 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 약관 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 약관 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침 동의.
-- 개인정보취급방침 동의 여부 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 약관 동의.
-- 이용 약관 동의 여부 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 약관 동의
-- 이용 약관, 개인정보취급방침 동의 여부 확인.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼
-- 전체 동의 하지 않는 경우 : 확인 버튼 비활성화.
-- 전체 동의 한 경우 : 확인 버튼 활성화, 정보입력 페이지로 이동.
-- url : join_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 기본정보 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS-front-gnb-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,54 +132,12 @@
     <t>PS-front-sign-07</t>
   </si>
   <si>
-    <t>PS-front-findid-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-findid-02</t>
-  </si>
-  <si>
-    <t>PS-front-findid-03</t>
-  </si>
-  <si>
-    <t>PS-front-findid-04</t>
-  </si>
-  <si>
-    <t>PS-front-findid-05</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-findpwd-02</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-03</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-04</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-05</t>
-  </si>
-  <si>
-    <t>PS-front-findpwd-06</t>
-  </si>
-  <si>
-    <t>PS-front-join-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS-front-join-02</t>
   </si>
   <si>
     <t>PS-front-join-03</t>
   </si>
   <si>
-    <t>PS-front-join-04</t>
-  </si>
-  <si>
     <t>PS-front-join-05</t>
   </si>
   <si>
@@ -321,147 +145,6 @@
   </si>
   <si>
     <t>PS-front-join-07</t>
-  </si>
-  <si>
-    <t>PS-front-join-08</t>
-  </si>
-  <si>
-    <t>PS-front-join-09</t>
-  </si>
-  <si>
-    <t>PS-front-join-10</t>
-  </si>
-  <si>
-    <t>PS-front-join-11</t>
-  </si>
-  <si>
-    <t>PS-front-join-12</t>
-  </si>
-  <si>
-    <t>PS-front-join-13</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지로 이동.
-- url : index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-join-14</t>
-  </si>
-  <si>
-    <t>가입 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력 (최소 5, 최대 15자)
-영문, 숫자 조합으로, 5~15자 이내로 작성
-대소문자 구별, 한글, 특수문자 사용 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 버튼
-- 올바른 정보가 입력 된 경우 : 정상적으로 로그인 성공.
-- 잘못 입력된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증요청 버튼
-- 올바른 정보가 입력 된 경우 : 이메일로 인증번호 전송.
-- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기 버튼
-- 올바른 정보가 입력 된 경우 : 아이디 출력 페이지로 이동.
-- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기 버튼
-- 올바른 정보가 입력 된 경우 : 임시 비밀번호 출력 페이지로 이동.
-- 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력 (최대 40자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복확인 버튼
-- 올바른 정보가 입력 된 경우 : 정상 팝업 메시지 출력.
-- 이미 정보가 있는 경우, 잘못 입력 된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문, 숫자, 특수문자 조합 필수
-8자 ~ 18자 이내로 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소 버튼
-- 메인 페이지로 이동
-- url : index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼
-- 올바른 정보가 입력 된 경우 : 가입 완료 페이지로 이동.
-- url : join_ok
-- 잘못 입력된 경우 : 오류 팝업 메시지 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입 완료 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-join-15</t>
-  </si>
-  <si>
-    <t>홈으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈으로 버튼
-- 메인 페이지로 이동
-- url : index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LOGO</t>
@@ -548,6 +231,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>상단 탭 메뉴
+ - 각 메뉴 페이지로 이동.
+ - URL : company.html (회사소개)
+ - URL : books.html (도서)
+ - URL : pds.html (자료실)
+ - URL : ans.html (질문답변)
+ - URL : online.html (동영상 강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 및 주소, 연락처, 저작권 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 창
+ - 도서명, 저자 등 검색.
+ - 검색 결과(도서, 자료실, 동영상 강의) 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front_main-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front_main-02</t>
+  </si>
+  <si>
+    <t>PS-front_main-03</t>
+  </si>
+  <si>
+    <t>PS-front_main-04</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">로그인
  - 로그인 페이지로 이동.
@@ -574,52 +290,345 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 로그아웃</t>
+      <t xml:space="preserve"> 로그아웃
+ - 로그인 -&gt; 로그아웃 상태로 변경.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상단 탭 메뉴
- - 각 메뉴 페이지로 이동.
- - URL : company.html (회사소개)
- - URL : books.html (도서)
- - URL : pds.html (자료실)
- - URL : ans.html (질문답변)
- - URL : online.html (동영상 강의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고 및 주소, 연락처, 저작권 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 창
- - 도서명, 저자 등 검색.
- - 검색 결과(도서, 자료실, 동영상 강의) 출력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front_main-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front_main-02</t>
-  </si>
-  <si>
-    <t>PS-front_main-03</t>
-  </si>
-  <si>
-    <t>PS-front_main-04</t>
+    <t>로고 및 주소, 연락처, 저작권 정보.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 배너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front_main-05</t>
+  </si>
+  <si>
+    <t>PS-front_main-06</t>
+  </si>
+  <si>
+    <t>PS-front_main-07</t>
+  </si>
+  <si>
+    <t>슬라이드 배너 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 배너 버튼
+ - 왼쪽으로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 배너
+ - 책 표지 클릭 시 상세 페이지로 이동.
+ - URL : books_cnt.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 배너 버튼
+ - 오른쪽으로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 배너
+ - 배너 클릭 시 상세 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+) 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 배너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/이벤트
+ - 제목 클릭 시 상세 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 저장
+ - 체크박스 클릭 시 다음 로그인 할 때 아이디 자동 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PS-front-sign-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서 소개
- - 좌, 우 버튼으로 슬라이드 이동.
- - 표지 클릭 시 도서 상세 페이지로 이동.
- - URL : books_cnt.html</t>
+  </si>
+  <si>
+    <t>아이디 찾기
+ - 아이디 찾기 페이지로 이동.
+ - URL : id_find_form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입
+ - 회원가입 페이지로 이동.
+ - URL : agree_form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-id_find-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-id_find-02</t>
+  </si>
+  <si>
+    <t>PS-front-id_find-03</t>
+  </si>
+  <si>
+    <t>PS-front-id_find-04</t>
+  </si>
+  <si>
+    <t>PS-front-id_find-05</t>
+  </si>
+  <si>
+    <t>이메일 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력
+ - 최대 40자 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력
+ - 최소 5, 최대 15자 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력
+ - 최소 8, 최대 18자 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 입력
+ - 6자 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소
+ - 메인 페이지로 이동.
+ - URL : index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+) 버튼
+ - 버튼 클릭 시 공지사항/이벤트 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS
+ - 출판사 SNS 페이지로 이동. (트위터, 인스타그램, 페이스북)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인
+ - 회원 정보가 있는 경우
+  -&gt; 로그인 성공 : 메인 페이지로 이동.
+  -&gt; URL : index.html
+ - 회원 정보가 없는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 일치하는 회원정보가 없습니다.
+ - 아이디 or 비밀번호가 입력되지 않은 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 아이디(or 비밀번호)가 입력되지 않았습니다.
+  -&gt; 아이디(or 비밀번호)로 focus 이동.
+ - 비밀번호가 잘못 입력된 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 잘못된 비밀번호입니다.
+  -&gt; 비밀번호로 focus 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기
+ - 비밀번호 찾기 페이지로 이동.
+ - URL : pwd_find_form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-02</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-03</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-04</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-05</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-06</t>
+  </si>
+  <si>
+    <t>아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기
+ - 인증번호가 정상적으로 입력된 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 임시 발급된 비밀번호는는 ○○○ 입니다.
+  -&gt; alert(팝업) 확인 버튼 클릭시 로그인 페이지로 이동.
+  -&gt; URL : login_form.html
+ - 인증번호가 잘못 입력된 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 인증번호가 잘못 입력되어습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기
+ - 인증번호가 정상적으로 입력된 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 찾으시는 아이디는 ○○○ 입니다.
+  -&gt; alert(팝업) 확인 버튼 클릭시 로그인 페이지로 이동.
+  -&gt; URL : login_form.html
+ - 인증번호가 잘못 입력된 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 인증번호가 잘못 입력되어습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 요청
+ - 일치하는 회원 정보(이메일)가 있는 경우
+  -&gt; 이메일로 인중번호 송신.
+ - 일치하는 회원 정보(이메일)가 없는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 일치하는 회원정보가 없습니다.
+ - 회원정보(이메일)이 입력되지 않은 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 이메일을 입력해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 요청
+ - 일치하는 회원 정보(아이디, 이메일)가 있는 경우
+  -&gt; 이메일로 인중번호 송신.
+ - 일치하는 회원 정보(아이디, 이메일)가 없는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 일치하는 회원정보가 없습니다.
+ - 회원정보(아이디 or 이메일)이 입력되지 않은 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 아이디(or 이메일)을 입력해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관 동의 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침 동의 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젼체 약관 동의 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관 동의 여부
+ - 예 or 아니요 중 선택.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침 동의 여부
+ - 예 or 아니요 중 선택.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인
+ - 전체 약관 동의 시 회원 가입 페이지로 이동.
+ - URL : join_form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 약관 동의 여부
+ - 체크박스 클릭 시 이용약관, 개인정보취급방침 동의 여부에서 동의(예) 체크됨.
+ - 체크박스 클릭 후 이용 약관 or 개인정보취급방침 동의 해제 시 전제 약관 동의도 체크 해제됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,12 +717,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1008,52 +1019,52 @@
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
     <col min="9" max="11" width="11.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="64.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="83.875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1069,21 +1080,21 @@
       <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
@@ -1091,29 +1102,29 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4"/>
       <c r="M5" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4"/>
       <c r="M6" s="3" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
@@ -1121,14 +1132,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4"/>
       <c r="M7" s="6" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -1136,157 +1147,250 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4"/>
       <c r="M8" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="M9" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -1294,19 +1398,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1314,19 +1415,19 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1334,119 +1435,119 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1454,139 +1555,139 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -1594,300 +1695,145 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="M52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Documents/기능정의서.xlsx
+++ b/Documents/기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Publisher_Portfolio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B32701-CDD5-4990-95F7-108E7F5552DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD81C18-66F4-4234-81E5-795027A23503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능정의서" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="223">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Depth2</t>
-  </si>
-  <si>
-    <t>Depth3</t>
   </si>
   <si>
     <t>구현 대상</t>
@@ -475,11 +472,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>비밀번호 찾기
+ - 비밀번호 찾기 페이지로 이동.
+ - URL : pwd_find_form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-02</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-03</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-04</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-05</t>
+  </si>
+  <si>
+    <t>PS-front-pwd_find-06</t>
+  </si>
+  <si>
+    <t>아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관 동의 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침 동의 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젼체 약관 동의 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 약관 동의 여부
+ - 예 or 아니요 중 선택.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보취급방침 동의 여부
+ - 예 or 아니요 중 선택.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인
+ - 전체 약관 동의 시 회원 가입 페이지로 이동.
+ - URL : join_form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 약관 동의 여부
+ - 체크박스 클릭 시 이용약관, 개인정보취급방침 동의 여부에서 동의(예) 체크됨.
+ - 체크박스 클릭 후 이용 약관 or 개인정보취급방침 동의 해제 시 전제 약관 동의도 체크 해제됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>로그인
- - 회원 정보가 있는 경우
+ - 일치하는 회원 정보가 있는 경우
   -&gt; 로그인 성공 : 메인 페이지로 이동.
   -&gt; URL : index.html
- - 회원 정보가 없는 경우
+ - 일치하는 회원 정보가 없는 경우
   -&gt; alert(팝업) 출력.
   -&gt; 메시지 : 일치하는 회원정보가 없습니다.
  - 아이디 or 비밀번호가 입력되지 않은 경우
@@ -488,37 +576,145 @@
   -&gt; 아이디(or 비밀번호)로 focus 이동.
  - 비밀번호가 잘못 입력된 경우
   -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 잘못된 비밀번호입니다.
+  -&gt; 메시지 : 비밀번호가 일치하지 않습니다.
   -&gt; 비밀번호로 focus 이동.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 찾기
- - 비밀번호 찾기 페이지로 이동.
- - URL : pwd_find_form.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-pwd_find-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-pwd_find-02</t>
-  </si>
-  <si>
-    <t>PS-front-pwd_find-03</t>
-  </si>
-  <si>
-    <t>PS-front-pwd_find-04</t>
-  </si>
-  <si>
-    <t>PS-front-pwd_find-05</t>
-  </si>
-  <si>
-    <t>PS-front-pwd_find-06</t>
+    <t>PS-front-info-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-info-02</t>
+  </si>
+  <si>
+    <t>PS-front-info-03</t>
+  </si>
+  <si>
+    <t>PS-front-info-04</t>
+  </si>
+  <si>
+    <t>PS-front-info-05</t>
+  </si>
+  <si>
+    <t>PS-front-info-06</t>
+  </si>
+  <si>
+    <t>PS-front-info-07</t>
+  </si>
+  <si>
+    <t>PS-front-info-08</t>
+  </si>
+  <si>
+    <t>Depth3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 확인
+ - 아이디가 존재하는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 이미 존재하는 아이디가 있습니다.
+ - 아이디가 존재하지 않는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 사용 가능한 아이디 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 확인
+ - 이메일이 존재하는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 이미 존재하는 이메일이 있습니다.
+ - 이메일이 존재하지 않는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 사용 가능한 이메일 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 입력
+ - 최소 8, 최대 18자 입력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 요청
+ - 일치하는 회원 정보(이메일)가 있는 경우
+  -&gt; 이메일로 인중번호 송신.
+ - 일치하는 회원 정보(이메일)가 없는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 일치하는 회원정보가 없습니다.
+ - 이메일이 입력되지 않은 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 이메일을 입력해주세요.
+  -&gt; 이메일로 focus 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기
+ - 인증번호가 정상적으로 입력된 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 찾으시는 아이디는 ○○○ 입니다.
+  -&gt; alert(팝업) 확인 버튼 클릭시 로그인 페이지로 이동.
+  -&gt; URL : login_form.html
+ - 인증번호가 잘못 입력된 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 인증번호가 일치하지 않습니다.
+  -&gt; 인증번호로 focus 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 요청
+ - 일치하는 회원 정보(아이디, 이메일)가 있는 경우
+  -&gt; 이메일로 인중번호 송신.
+ - 일치하는 회원 정보(아이디, 이메일)가 없는 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 일치하는 회원정보가 없습니다.
+ - 아이디 or 이메일이 입력되지 않은 경우
+  -&gt; alert(팝업) 출력.
+  -&gt; 메시지 : 아이디(or 이메일)을 입력해주세요.
+  -&gt; 아이디(or 이메일)로 focus 이동.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,106 +726,434 @@
   -&gt; URL : login_form.html
  - 인증번호가 잘못 입력된 경우
   -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 인증번호가 잘못 입력되어습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기
- - 인증번호가 정상적으로 입력된 경우
+  -&gt; 메시지 : 인증번호가 일치하지 않습니다.
+  -&gt; 인증번호로 focus 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-join_ok-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈으로
+ - 메인 페이지로 이동.
+ - URL : index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인
+ - 비밀번호가 일치한 경우
+  -&gt; 정상적으로 가입이 완료되며, 가입 완료 페이지로 이동.
+  -&gt; URL : join_ok.html
+ - 비밀번호가 일치하지 않는 경우
   -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 찾으시는 아이디는 ○○○ 입니다.
-  -&gt; alert(팝업) 확인 버튼 클릭시 로그인 페이지로 이동.
-  -&gt; URL : login_form.html
- - 인증번호가 잘못 입력된 경우
-  -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 인증번호가 잘못 입력되어습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 요청
- - 일치하는 회원 정보(이메일)가 있는 경우
-  -&gt; 이메일로 인중번호 송신.
- - 일치하는 회원 정보(이메일)가 없는 경우
-  -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 일치하는 회원정보가 없습니다.
- - 회원정보(이메일)이 입력되지 않은 경우
-  -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 이메일을 입력해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 요청
- - 일치하는 회원 정보(아이디, 이메일)가 있는 경우
-  -&gt; 이메일로 인중번호 송신.
- - 일치하는 회원 정보(아이디, 이메일)가 없는 경우
-  -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 일치하는 회원정보가 없습니다.
- - 회원정보(아이디 or 이메일)이 입력되지 않은 경우
-  -&gt; alert(팝업) 출력.
-  -&gt; 메시지 : 아이디(or 이메일)을 입력해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 약관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 약관 동의 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침 동의 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젼체 약관 동의 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 약관 동의 여부
- - 예 or 아니요 중 선택.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보취급방침 동의 여부
- - 예 or 아니요 중 선택.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인
- - 전체 약관 동의 시 회원 가입 페이지로 이동.
- - URL : join_form.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-join-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 약관 동의 여부
- - 체크박스 클릭 시 이용약관, 개인정보취급방침 동의 여부에서 동의(예) 체크됨.
- - 체크박스 클릭 후 이용 약관 or 개인정보취급방침 동의 해제 시 전제 약관 동의도 체크 해제됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-front-join-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  -&gt; 메시지 : 비밀번호가 일치하지 않습니다.
+  -&gt; 비밀번호로 focus 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-com_side-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-com_side-02</t>
+  </si>
+  <si>
+    <t>회사소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾아오시는 길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사소개
+ - 회사소개 페이지로 이동.
+ - URL : company.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾아오시는 길
+ - 찾아오시는 길 페이지로 이동.
+ - URL : directions.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-com-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-dir-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-book-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-book-02</t>
+  </si>
+  <si>
+    <t>PS-front-book-03</t>
+  </si>
+  <si>
+    <t>PS-front-book-04</t>
+  </si>
+  <si>
+    <t>PS-front-book-05</t>
+  </si>
+  <si>
+    <t>PS-front-book-06</t>
+  </si>
+  <si>
+    <t>PS-front-book-07</t>
+  </si>
+  <si>
+    <t>PS-front-book-08</t>
+  </si>
+  <si>
+    <t>도서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 이동 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 창
+ - 도서명, 저자 등 검색.
+ - 검색 결과(도서) 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 이동 버튼
+ - 앞 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지
+ - 최대 5페이지 출력.
+ - 현재 위치한 페이지 표시.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 이동 버튼
+ - 뒷 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-book_cnt-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-book_cnt-02</t>
+  </si>
+  <si>
+    <t>PS-front-book_cnt-03</t>
+  </si>
+  <si>
+    <t>도서 (상세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서구매 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">글쓰기
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(관리자)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 작성 페이지로 이동.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">수정
+ - 회원, 비회원에게는 보이지 않음.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(관리자)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 수정 페이지로 이동.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">삭제
+ - 회원, 비회원에게는 보이지 않음.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(관리자)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> alert(팝업) 출력.
+ - 메시지 : 게시물을 삭제하시겠습니까?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 표지
+ - 클릭 시 도서 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 제목
+ - 클릭 시 도서 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서구매 사이트
+ - 해당 도서 구매 페이지로 이동. (알라딘, 교보문고, Yes24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 표지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-pds-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-pds-02</t>
+  </si>
+  <si>
+    <t>PS-front-pds-03</t>
+  </si>
+  <si>
+    <t>PS-front-pds-04</t>
+  </si>
+  <si>
+    <t>PS-front-pds-05</t>
+  </si>
+  <si>
+    <t>PS-front-pds-06</t>
+  </si>
+  <si>
+    <t>PS-front-pds-07</t>
+  </si>
+  <si>
+    <t>PS-front-pds-08</t>
+  </si>
+  <si>
+    <t>자료실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료실 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 창
+ - 도서명, 저자 등 검색.
+ - 검색 결과(자료실) 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 리스트
+ - 페이지 당 5개 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료실 리스트
+ - 페이지 당 5개 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 다운로드
+ - 도서 관련 자료 다운로드.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지도
+ - Kakao Map API 활용.
+ - 회사 위치 표시. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 창
+ - 도서명, 저자 등 검색.
+ - 검색 결과(동영상 강의) 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 리스트
+ - 페이지 당 5개 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 표지
+ - 클릭 시 동영상 강의 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 제목
+ - 클릭 시 동영상 강의 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-pds-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-online-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-online-02</t>
+  </si>
+  <si>
+    <t>PS-front-online-03</t>
+  </si>
+  <si>
+    <t>PS-front-online-04</t>
+  </si>
+  <si>
+    <t>PS-front-online-05</t>
+  </si>
+  <si>
+    <t>PS-front-online-06</t>
+  </si>
+  <si>
+    <t>PS-front-online-07</t>
+  </si>
+  <si>
+    <t>동영상 강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-online-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-online_cnt-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-front-online_cnt-02</t>
+  </si>
+  <si>
+    <t>PS-front-online_cnt-03</t>
+  </si>
+  <si>
+    <t>PS-front-online_cnt-04</t>
+  </si>
+  <si>
+    <t>PS-front-online_cnt-05</t>
   </si>
 </sst>
 </file>
@@ -717,14 +1241,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M52"/>
+  <dimension ref="B2:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
@@ -1019,833 +1543,1768 @@
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="11" width="11.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="83.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="6" max="8" width="27.125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="13" width="11.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="83.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7" t="s">
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="M5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="O5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="M6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="O6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="M7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="O7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="M8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="M9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="247.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:15" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="O21" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="165" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="165" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="165" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="165" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="O39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="O40" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="132" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="C52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" ht="66" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>67</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>68</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>69</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" ht="66" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B74" s="2">
+        <v>71</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>72</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <v>73</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <v>74</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>75</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
+        <v>84</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B89" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B90" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B96" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="2">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
+  <mergeCells count="11">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/기능정의서.xlsx
+++ b/Documents/기능정의서.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Publisher_Portfolio\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Project\Publisher_Portfolio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F42724-040D-4DE4-BA6D-1DBC3BBE4958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
-    <sheet name="기능정의서" sheetId="1" r:id="rId2"/>
+    <sheet name="기능약어, 문서이력" sheetId="3" r:id="rId2"/>
+    <sheet name="기능정의서" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="291">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2962,12 +2962,164 @@
     <t>하 태민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버 전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능약어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약 어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능정의서 작성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 태민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Navication bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계 &amp; 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Domain Software</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3033,8 +3185,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3047,8 +3224,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3583,11 +3766,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3601,18 +3821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3640,21 +3848,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3685,15 +3881,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3703,33 +3890,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3741,15 +3901,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3776,6 +3927,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3794,24 +3957,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3829,6 +3980,183 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4446,674 +4774,674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9EF94-C513-44C1-A4E4-1AFBD209E9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="67"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="68"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="68"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="68"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="68"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="68"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="68"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="68"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="68"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="68"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="68"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="68"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="68"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="68"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="68"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="68"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="68"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="68"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="68"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="68"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="68"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="68"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="68"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="68"/>
-    </row>
-    <row r="27" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="68"/>
-    </row>
-    <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="70" t="s">
+    <row r="1" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="45"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="45"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="45"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="45"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="45"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="45"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="45"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="45"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="45"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="45"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="45"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="45"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="45"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="45"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="45"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="45"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="45"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="45"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="45"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="45"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="45"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="45"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="45"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="45"/>
+    </row>
+    <row r="27" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="45"/>
+    </row>
+    <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="40"/>
+      <c r="C28" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="74" t="s">
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="74" t="s">
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="74" t="s">
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="60"/>
-    </row>
-    <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="60"/>
-    </row>
-    <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="76" t="s">
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="37"/>
+    </row>
+    <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="40"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="37"/>
+    </row>
+    <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="40"/>
+      <c r="C30" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="80">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="47">
         <v>0.1</v>
       </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="82">
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="59">
         <v>43963</v>
       </c>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="80" t="s">
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="60"/>
-    </row>
-    <row r="31" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="63"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="60"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="68"/>
-    </row>
-    <row r="33" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="69"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="40"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="37"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="45"/>
+    </row>
+    <row r="33" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5133,127 +5461,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.796875" style="1"/>
+    <col min="8" max="8" width="18.796875" style="1" customWidth="1"/>
+    <col min="9" max="14" width="8.796875" style="1"/>
+    <col min="15" max="15" width="3.19921875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.796875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="11.296875" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.09765625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="93"/>
+    </row>
+    <row r="3" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="119"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="95"/>
+    </row>
+    <row r="4" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="99">
+        <v>43963</v>
+      </c>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="100"/>
+    </row>
+    <row r="5" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="100"/>
+    </row>
+    <row r="6" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="100"/>
+    </row>
+    <row r="7" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="101"/>
+    </row>
+    <row r="8" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="2:21" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="110" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
+      <c r="P9" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="105"/>
+    </row>
+    <row r="10" spans="2:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="N10" s="109"/>
+      <c r="P10" s="113" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="T10" s="114"/>
+      <c r="U10" s="115"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="98">
+        <v>43963</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="N11" s="89"/>
+      <c r="P11" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="89"/>
+    </row>
+    <row r="12" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="106"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="89"/>
+      <c r="P12" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q12" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="89"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="106"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="89"/>
+      <c r="P13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="89"/>
+    </row>
+    <row r="14" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="106"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="89"/>
+      <c r="P14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q14" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="89"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="106"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
+      <c r="P15" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q15" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="89"/>
+    </row>
+    <row r="16" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="106"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="89"/>
+      <c r="P16" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q16" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="89"/>
+    </row>
+    <row r="17" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="106"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
+      <c r="P17" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="89"/>
+    </row>
+    <row r="18" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="106"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="89"/>
+      <c r="P18" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="89"/>
+    </row>
+    <row r="19" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="106"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="89"/>
+      <c r="P19" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="89"/>
+    </row>
+    <row r="20" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="106"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="89"/>
+      <c r="P20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q20" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="89"/>
+    </row>
+    <row r="21" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="106"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="89"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="89"/>
+    </row>
+    <row r="22" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="106"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="89"/>
+    </row>
+    <row r="23" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="106"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="89"/>
+    </row>
+    <row r="24" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="106"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="89"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="89"/>
+    </row>
+    <row r="25" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="106"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="89"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="89"/>
+    </row>
+    <row r="26" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="106"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="89"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="89"/>
+    </row>
+    <row r="27" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="106"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="89"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="89"/>
+    </row>
+    <row r="28" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="106"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="89"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="89"/>
+    </row>
+    <row r="29" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="106"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="89"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="89"/>
+    </row>
+    <row r="30" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="106"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="89"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="89"/>
+    </row>
+    <row r="31" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="106"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="89"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="89"/>
+    </row>
+    <row r="32" spans="2:21" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="107"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="91"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="152">
+    <mergeCell ref="B4:D7"/>
+    <mergeCell ref="E4:G7"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="H2:U3"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="J4:O5"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="R6:U7"/>
+    <mergeCell ref="J6:O7"/>
+    <mergeCell ref="R4:U5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N137"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="27.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="27.09765625" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="12" width="9" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="83.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="83.8984375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20" t="s">
+    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="15">
+      <c r="M3" s="66"/>
+      <c r="N3" s="68"/>
+    </row>
+    <row r="4" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="23" t="s">
+      <c r="I4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+    <row r="5" spans="2:14" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -5262,13 +6496,13 @@
       <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -5283,12 +6517,12 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+    <row r="6" spans="2:14" ht="87" x14ac:dyDescent="0.4">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -5297,13 +6531,13 @@
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -5318,12 +6552,12 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+    <row r="7" spans="2:14" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -5332,13 +6566,13 @@
       <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -5353,97 +6587,97 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
+    <row r="8" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="24" t="s">
+      <c r="E8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="15">
+    <row r="9" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="75"/>
+    </row>
+    <row r="10" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="11">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="23" t="s">
+      <c r="E10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
+    <row r="11" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="11">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5455,10 +6689,10 @@
       <c r="E11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -5473,12 +6707,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
+    <row r="12" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B12" s="11">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -5490,10 +6724,10 @@
       <c r="E12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -5508,12 +6742,12 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
+    <row r="13" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B13" s="11">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5525,10 +6759,10 @@
       <c r="E13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -5543,12 +6777,12 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+    <row r="14" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="11">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -5560,10 +6794,10 @@
       <c r="E14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -5578,12 +6812,12 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="15">
+    <row r="15" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="11">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -5595,10 +6829,10 @@
       <c r="E15" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5613,97 +6847,97 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
+    <row r="16" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="24" t="s">
+      <c r="E16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    <row r="17" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="75"/>
+    </row>
+    <row r="18" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="23" t="s">
+      <c r="E18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="15">
+    <row r="19" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -5715,10 +6949,10 @@
       <c r="E19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -5733,12 +6967,12 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
+    <row r="20" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -5750,10 +6984,10 @@
       <c r="E20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -5768,12 +7002,12 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
+    <row r="21" spans="2:14" ht="261" x14ac:dyDescent="0.4">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -5785,10 +7019,10 @@
       <c r="E21" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -5803,12 +7037,12 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
+    <row r="22" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B22" s="11">
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -5820,10 +7054,10 @@
       <c r="E22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -5838,12 +7072,12 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
+    <row r="23" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B23" s="11">
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -5855,10 +7089,10 @@
       <c r="E23" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -5873,97 +7107,97 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="12">
+    <row r="24" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>19</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="24" t="s">
+      <c r="E24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
-    </row>
-    <row r="26" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="15">
+    <row r="25" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="75"/>
+    </row>
+    <row r="26" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" s="11">
         <v>20</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="23" t="s">
+      <c r="F26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="15">
+    <row r="27" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B27" s="11">
         <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -5978,7 +7212,7 @@
       <c r="F27" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -5993,12 +7227,12 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="165" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
+    <row r="28" spans="2:14" ht="174" x14ac:dyDescent="0.4">
+      <c r="B28" s="11">
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -6013,7 +7247,7 @@
       <c r="F28" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -6028,12 +7262,12 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="165" x14ac:dyDescent="0.3">
-      <c r="B29" s="15">
+    <row r="29" spans="2:14" ht="174" x14ac:dyDescent="0.4">
+      <c r="B29" s="11">
         <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -6048,7 +7282,7 @@
       <c r="F29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -6063,97 +7297,97 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="12">
+    <row r="30" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8">
         <v>24</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="24" t="s">
+      <c r="F30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
-    </row>
-    <row r="32" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B32" s="15">
+    <row r="31" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="75"/>
+    </row>
+    <row r="32" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B32" s="11">
         <v>25</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="23" t="s">
+      <c r="F32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B33" s="15">
+    <row r="33" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B33" s="11">
         <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -6168,7 +7402,7 @@
       <c r="F33" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -6183,12 +7417,12 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="15">
+    <row r="34" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B34" s="11">
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -6203,7 +7437,7 @@
       <c r="F34" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -6218,12 +7452,12 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="165" x14ac:dyDescent="0.3">
-      <c r="B35" s="15">
+    <row r="35" spans="2:14" ht="174" x14ac:dyDescent="0.4">
+      <c r="B35" s="11">
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -6238,7 +7472,7 @@
       <c r="F35" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -6253,12 +7487,12 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="165" x14ac:dyDescent="0.3">
-      <c r="B36" s="15">
+    <row r="36" spans="2:14" ht="174" x14ac:dyDescent="0.4">
+      <c r="B36" s="11">
         <v>29</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -6273,7 +7507,7 @@
       <c r="F36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -6288,97 +7522,97 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="12">
+    <row r="37" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>30</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="24" t="s">
+      <c r="F37" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="35"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="15">
+    <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="75"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39" s="11">
         <v>31</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="59" t="s">
+      <c r="F39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B40" s="15">
+    <row r="40" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B40" s="11">
         <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -6393,7 +7627,7 @@
       <c r="F40" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -6408,12 +7642,12 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B41" s="11">
         <v>33</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -6428,7 +7662,7 @@
       <c r="F41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -6443,12 +7677,12 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="58" t="s">
+      <c r="N41" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B42" s="15">
+    <row r="42" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B42" s="11">
         <v>34</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -6463,7 +7697,7 @@
       <c r="F42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -6478,12 +7712,12 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B43" s="15">
+    <row r="43" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B43" s="11">
         <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -6498,7 +7732,7 @@
       <c r="F43" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -6513,12 +7747,12 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="10" t="s">
+      <c r="N43" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="15">
+    <row r="44" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B44" s="11">
         <v>36</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -6533,7 +7767,7 @@
       <c r="F44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -6548,97 +7782,97 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="10" t="s">
+      <c r="N44" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="12">
+    <row r="45" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>37</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="24" t="s">
+      <c r="F45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="35"/>
-    </row>
-    <row r="47" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B47" s="15">
+    <row r="46" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="75"/>
+    </row>
+    <row r="47" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B47" s="11">
         <v>38</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="23" t="s">
+      <c r="G47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="15">
+    <row r="48" spans="2:14" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B48" s="11">
         <v>39</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -6668,12 +7902,12 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="10" t="s">
+      <c r="N48" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B49" s="15">
+    <row r="49" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B49" s="11">
         <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -6703,12 +7937,12 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="10" t="s">
+      <c r="N49" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="15">
+    <row r="50" spans="2:14" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B50" s="11">
         <v>41</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -6738,12 +7972,12 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="10" t="s">
+      <c r="N50" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B51" s="15">
+    <row r="51" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B51" s="11">
         <v>42</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -6773,12 +8007,12 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="10" t="s">
+      <c r="N51" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="15">
+    <row r="52" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B52" s="11">
         <v>43</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -6808,12 +8042,12 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="10" t="s">
+      <c r="N52" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B53" s="15">
+    <row r="53" spans="2:14" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="B53" s="11">
         <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -6843,330 +8077,330 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="10" t="s">
+      <c r="N53" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="12">
+    <row r="54" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="8">
         <v>45</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="24" t="s">
+      <c r="G54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="35"/>
-    </row>
-    <row r="56" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="25">
+    <row r="55" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="75"/>
+    </row>
+    <row r="56" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="17">
         <v>46</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H56" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I56" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="57" t="s">
+      <c r="H56" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="35"/>
-    </row>
-    <row r="58" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B58" s="15">
+    <row r="57" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="75"/>
+    </row>
+    <row r="58" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B58" s="11">
         <v>47</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="23" t="s">
+      <c r="F58" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="12">
+    <row r="59" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>48</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F59" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="24" t="s">
+      <c r="F59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="41"/>
-    </row>
-    <row r="61" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="25">
+    <row r="60" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="78"/>
+    </row>
+    <row r="61" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="17">
         <v>49</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="J61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="28"/>
-    </row>
-    <row r="62" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="41"/>
-    </row>
-    <row r="63" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="25">
+      <c r="E61" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20"/>
+    </row>
+    <row r="62" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="78"/>
+    </row>
+    <row r="63" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="17">
         <v>50</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I63" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="57" t="s">
+      <c r="F63" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="33"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="35"/>
-    </row>
-    <row r="65" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B65" s="15">
+    <row r="64" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="75"/>
+    </row>
+    <row r="65" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B65" s="11">
         <v>51</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="23" t="s">
+      <c r="E65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B66" s="15">
+    <row r="66" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B66" s="11">
         <v>52</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -7178,10 +8412,10 @@
       <c r="E66" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G66" s="16" t="s">
+      <c r="F66" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -7196,12 +8430,12 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="10" t="s">
+      <c r="N66" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B67" s="15">
+    <row r="67" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B67" s="11">
         <v>53</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -7213,10 +8447,10 @@
       <c r="E67" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G67" s="16" t="s">
+      <c r="F67" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -7231,12 +8465,12 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="10" t="s">
+      <c r="N67" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B68" s="15">
+    <row r="68" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B68" s="11">
         <v>54</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -7248,10 +8482,10 @@
       <c r="E68" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F68" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="16" t="s">
+      <c r="F68" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -7266,12 +8500,12 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="10" t="s">
+      <c r="N68" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B69" s="15">
+    <row r="69" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B69" s="11">
         <v>55</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -7283,10 +8517,10 @@
       <c r="E69" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G69" s="16" t="s">
+      <c r="F69" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -7301,12 +8535,12 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="10" t="s">
+      <c r="N69" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B70" s="15">
+    <row r="70" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B70" s="11">
         <v>56</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -7318,10 +8552,10 @@
       <c r="E70" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G70" s="16" t="s">
+      <c r="F70" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -7336,12 +8570,12 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="10" t="s">
+      <c r="N70" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B71" s="15">
+    <row r="71" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B71" s="11">
         <v>57</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -7353,10 +8587,10 @@
       <c r="E71" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -7371,97 +8605,97 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="10" t="s">
+      <c r="N71" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="12">
+    <row r="72" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="8">
         <v>58</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="24" t="s">
+      <c r="E72" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="42"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="44"/>
-    </row>
-    <row r="74" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B74" s="15">
+    <row r="73" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="79"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="81"/>
+    </row>
+    <row r="74" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B74" s="11">
         <v>59</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="23" t="s">
+      <c r="F74" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="B75" s="15">
+    <row r="75" spans="2:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B75" s="11">
         <v>60</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -7476,7 +8710,7 @@
       <c r="F75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -7491,97 +8725,97 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="10" t="s">
+      <c r="N75" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="12">
+    <row r="76" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="8">
         <v>61</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="24" t="s">
+      <c r="F76" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="35"/>
-    </row>
-    <row r="78" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B78" s="15">
+    <row r="77" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="73"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="75"/>
+    </row>
+    <row r="78" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B78" s="11">
         <v>62</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="23" t="s">
+      <c r="E78" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B79" s="15">
+    <row r="79" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B79" s="11">
         <v>63</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -7593,30 +8827,30 @@
       <c r="E79" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G79" s="16" t="s">
+      <c r="F79" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I79" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J79" s="16" t="s">
+      <c r="I79" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J79" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="10" t="s">
+      <c r="N79" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B80" s="15">
+    <row r="80" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B80" s="11">
         <v>64</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -7628,30 +8862,30 @@
       <c r="E80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I80" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J80" s="16" t="s">
+      <c r="I80" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J80" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="10" t="s">
+      <c r="N80" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B81" s="15">
+    <row r="81" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B81" s="11">
         <v>65</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -7663,30 +8897,30 @@
       <c r="E81" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F81" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G81" s="16" t="s">
+      <c r="F81" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I81" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J81" s="16" t="s">
+      <c r="I81" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J81" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="10" t="s">
+      <c r="N81" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B82" s="15">
+    <row r="82" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B82" s="11">
         <v>66</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -7698,30 +8932,30 @@
       <c r="E82" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G82" s="16" t="s">
+      <c r="F82" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I82" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J82" s="16" t="s">
+      <c r="I82" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J82" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="4"/>
-      <c r="N82" s="10" t="s">
+      <c r="N82" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B83" s="15">
+    <row r="83" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B83" s="11">
         <v>67</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -7733,30 +8967,30 @@
       <c r="E83" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G83" s="16" t="s">
+      <c r="F83" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I83" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J83" s="16" t="s">
+      <c r="I83" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J83" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="10" t="s">
+      <c r="N83" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B84" s="15">
+    <row r="84" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B84" s="11">
         <v>68</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -7768,30 +9002,30 @@
       <c r="E84" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G84" s="16" t="s">
+      <c r="F84" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I84" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J84" s="16" t="s">
+      <c r="I84" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J84" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="10" t="s">
+      <c r="N84" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="2:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="B85" s="15">
+    <row r="85" spans="2:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B85" s="11">
         <v>69</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -7803,115 +9037,115 @@
       <c r="E85" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F85" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G85" s="16" t="s">
+      <c r="F85" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I85" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J85" s="16" t="s">
+      <c r="I85" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J85" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="12">
+    <row r="86" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="8">
         <v>70</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="24" t="s">
+      <c r="E86" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="33"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="35"/>
-    </row>
-    <row r="88" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B88" s="15">
+    <row r="87" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="73"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="75"/>
+    </row>
+    <row r="88" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B88" s="11">
         <v>71</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F88" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I88" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="23" t="s">
+      <c r="F88" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B89" s="15">
+    <row r="89" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B89" s="11">
         <v>72</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -7923,10 +9157,10 @@
       <c r="E89" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F89" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G89" s="16" t="s">
+      <c r="F89" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G89" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -7941,12 +9175,12 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="10" t="s">
+      <c r="N89" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B90" s="15">
+    <row r="90" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B90" s="11">
         <v>73</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -7958,10 +9192,10 @@
       <c r="E90" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G90" s="16" t="s">
+      <c r="F90" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -7976,12 +9210,12 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="10" t="s">
+      <c r="N90" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B91" s="15">
+    <row r="91" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B91" s="11">
         <v>74</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -7993,10 +9227,10 @@
       <c r="E91" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F91" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G91" s="16" t="s">
+      <c r="F91" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G91" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H91" s="3" t="s">
@@ -8011,12 +9245,12 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="10" t="s">
+      <c r="N91" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B92" s="15">
+    <row r="92" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B92" s="11">
         <v>75</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -8028,10 +9262,10 @@
       <c r="E92" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G92" s="16" t="s">
+      <c r="F92" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G92" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -8046,12 +9280,12 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="10" t="s">
+      <c r="N92" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B93" s="15">
+    <row r="93" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B93" s="11">
         <v>76</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -8063,10 +9297,10 @@
       <c r="E93" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F93" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G93" s="16" t="s">
+      <c r="F93" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -8081,12 +9315,12 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="10" t="s">
+      <c r="N93" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B94" s="15">
+    <row r="94" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B94" s="11">
         <v>77</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -8098,10 +9332,10 @@
       <c r="E94" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G94" s="16" t="s">
+      <c r="F94" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -8116,97 +9350,97 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="10" t="s">
+      <c r="N94" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="12">
+    <row r="95" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="8">
         <v>78</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F95" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="24" t="s">
+      <c r="F95" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="45"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="47"/>
-    </row>
-    <row r="97" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B97" s="15">
+    <row r="96" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="82"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="83"/>
+      <c r="I96" s="83"/>
+      <c r="J96" s="83"/>
+      <c r="K96" s="83"/>
+      <c r="L96" s="83"/>
+      <c r="M96" s="83"/>
+      <c r="N96" s="84"/>
+    </row>
+    <row r="97" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B97" s="11">
         <v>79</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F97" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I97" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J97" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="23" t="s">
+      <c r="F97" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="2:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="B98" s="15">
+    <row r="98" spans="2:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B98" s="11">
         <v>80</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -8218,10 +9452,10 @@
       <c r="E98" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F98" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G98" s="16" t="s">
+      <c r="F98" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G98" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -8236,12 +9470,12 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="10" t="s">
+      <c r="N98" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B99" s="15">
+    <row r="99" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B99" s="11">
         <v>81</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -8253,10 +9487,10 @@
       <c r="E99" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G99" s="16" t="s">
+      <c r="F99" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G99" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -8271,12 +9505,12 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="4"/>
-      <c r="N99" s="10" t="s">
+      <c r="N99" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B100" s="15">
+    <row r="100" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B100" s="11">
         <v>82</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -8288,10 +9522,10 @@
       <c r="E100" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F100" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G100" s="16" t="s">
+      <c r="F100" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G100" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -8306,97 +9540,97 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="4"/>
-      <c r="N100" s="10" t="s">
+      <c r="N100" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="12">
+    <row r="101" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="8">
         <v>83</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E101" s="13" t="s">
+      <c r="E101" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F101" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J101" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="24" t="s">
+      <c r="F101" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="33"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="35"/>
-    </row>
-    <row r="103" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="15">
+    <row r="102" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="73"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="74"/>
+      <c r="L102" s="74"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="75"/>
+    </row>
+    <row r="103" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B103" s="11">
         <v>84</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E103" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I103" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="23" t="s">
+      <c r="E103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B104" s="15">
+    <row r="104" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B104" s="11">
         <v>85</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -8408,10 +9642,10 @@
       <c r="E104" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F104" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G104" s="16" t="s">
+      <c r="F104" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G104" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -8426,12 +9660,12 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="4"/>
-      <c r="N104" s="10" t="s">
+      <c r="N104" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B105" s="15">
+    <row r="105" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B105" s="11">
         <v>86</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -8443,10 +9677,10 @@
       <c r="E105" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F105" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G105" s="16" t="s">
+      <c r="F105" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G105" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -8461,12 +9695,12 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="4"/>
-      <c r="N105" s="10" t="s">
+      <c r="N105" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B106" s="15">
+    <row r="106" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B106" s="11">
         <v>87</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -8478,10 +9712,10 @@
       <c r="E106" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F106" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G106" s="16" t="s">
+      <c r="F106" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -8496,12 +9730,12 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="10" t="s">
+      <c r="N106" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B107" s="15">
+    <row r="107" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B107" s="11">
         <v>88</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -8513,10 +9747,10 @@
       <c r="E107" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F107" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G107" s="16" t="s">
+      <c r="F107" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G107" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H107" s="3" t="s">
@@ -8531,12 +9765,12 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="10" t="s">
+      <c r="N107" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B108" s="15">
+    <row r="108" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B108" s="11">
         <v>89</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -8548,10 +9782,10 @@
       <c r="E108" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F108" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G108" s="16" t="s">
+      <c r="F108" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G108" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -8566,106 +9800,106 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="10" t="s">
+      <c r="N108" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="29">
+    <row r="109" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B109" s="21">
         <v>90</v>
       </c>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D109" s="48" t="s">
+      <c r="D109" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="I109" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="J109" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="49"/>
-      <c r="N109" s="56" t="s">
+      <c r="E109" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J109" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="33"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="34"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="35"/>
-    </row>
-    <row r="111" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B111" s="50">
+    <row r="110" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="73"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="74"/>
+      <c r="K110" s="74"/>
+      <c r="L110" s="74"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="75"/>
+    </row>
+    <row r="111" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B111" s="30">
         <v>91</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D111" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="F111" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G111" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H111" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="I111" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J111" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="51"/>
-      <c r="N111" s="55" t="s">
+      <c r="F111" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I111" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J111" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B112" s="15">
+    <row r="112" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B112" s="11">
         <v>92</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D112" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="12" t="s">
         <v>156</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -8686,21 +9920,21 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="10" t="s">
+      <c r="N112" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B113" s="15">
+    <row r="113" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B113" s="11">
         <v>93</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="12" t="s">
         <v>156</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -8721,150 +9955,150 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="10" t="s">
+      <c r="N113" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="38">
+    <row r="114" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="37" t="s">
+      <c r="C114" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D114" s="37" t="s">
+      <c r="D114" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="37" t="s">
+      <c r="E114" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J114" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="24" t="s">
+      <c r="F114" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="34"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="35"/>
-    </row>
-    <row r="116" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="29">
+    <row r="115" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B115" s="73"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="75"/>
+    </row>
+    <row r="116" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B116" s="21">
         <v>95</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E116" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G116" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="H116" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="I116" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="J116" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="K116" s="30"/>
-      <c r="L116" s="30"/>
-      <c r="M116" s="31"/>
-      <c r="N116" s="32" t="s">
+      <c r="E116" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J116" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="33"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="34"/>
-      <c r="L117" s="34"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="35"/>
-    </row>
-    <row r="118" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B118" s="50">
+    <row r="117" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B117" s="73"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="75"/>
+    </row>
+    <row r="118" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B118" s="30">
         <v>96</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E118" s="36" t="s">
+      <c r="E118" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F118" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G118" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H118" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="I118" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J118" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="51"/>
-      <c r="N118" s="55" t="s">
+      <c r="F118" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I118" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J118" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="31"/>
+      <c r="N118" s="32" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B119" s="15">
+    <row r="119" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B119" s="11">
         <v>97</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="12" t="s">
         <v>159</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -8891,15 +10125,15 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="23" t="s">
+      <c r="N119" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B120" s="15">
+    <row r="120" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B120" s="11">
         <v>98</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="12" t="s">
         <v>160</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -8926,15 +10160,15 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="4"/>
-      <c r="N120" s="10" t="s">
+      <c r="N120" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B121" s="15">
+    <row r="121" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B121" s="11">
         <v>99</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -8961,15 +10195,15 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="10" t="s">
+      <c r="N121" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B122" s="15">
+    <row r="122" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B122" s="11">
         <v>100</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="12" t="s">
         <v>162</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -8996,182 +10230,182 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="10" t="s">
+      <c r="N122" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="2:14" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="38">
+    <row r="123" spans="2:14" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B123" s="27">
         <v>101</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E123" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J123" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="24" t="s">
+      <c r="F123" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="52"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="53"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="53"/>
-      <c r="M124" s="53"/>
-      <c r="N124" s="54"/>
-    </row>
-    <row r="125" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B125" s="50">
+    <row r="124" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B124" s="85"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="86"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="86"/>
+      <c r="I124" s="86"/>
+      <c r="J124" s="86"/>
+      <c r="K124" s="86"/>
+      <c r="L124" s="86"/>
+      <c r="M124" s="86"/>
+      <c r="N124" s="87"/>
+    </row>
+    <row r="125" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B125" s="30">
         <v>102</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D125" s="36" t="s">
+      <c r="D125" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E125" s="36" t="s">
+      <c r="E125" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="F125" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G125" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H125" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="I125" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J125" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="K125" s="36"/>
-      <c r="L125" s="36"/>
-      <c r="M125" s="51"/>
-      <c r="N125" s="55" t="s">
+      <c r="F125" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H125" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I125" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J125" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="31"/>
+      <c r="N125" s="32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="2:14" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="38">
+    <row r="126" spans="2:14" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B126" s="27">
         <v>103</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="E126" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F126" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J126" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="14"/>
-      <c r="N126" s="24" t="s">
+      <c r="F126" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="45"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
-      <c r="E127" s="46"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="47"/>
-    </row>
-    <row r="128" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B128" s="50">
+    <row r="127" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B127" s="82"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="83"/>
+      <c r="K127" s="83"/>
+      <c r="L127" s="83"/>
+      <c r="M127" s="83"/>
+      <c r="N127" s="84"/>
+    </row>
+    <row r="128" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B128" s="30">
         <v>104</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D128" s="36" t="s">
+      <c r="D128" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E128" s="36" t="s">
+      <c r="E128" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F128" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G128" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H128" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="I128" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J128" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="K128" s="36"/>
-      <c r="L128" s="36"/>
-      <c r="M128" s="51"/>
-      <c r="N128" s="55" t="s">
+      <c r="F128" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I128" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B129" s="15">
+    <row r="129" spans="2:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B129" s="11">
         <v>105</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -9201,12 +10435,12 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="4"/>
-      <c r="N129" s="10" t="s">
+      <c r="N129" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="2:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B130" s="15">
+    <row r="130" spans="2:14" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B130" s="11">
         <v>106</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -9236,12 +10470,12 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="4"/>
-      <c r="N130" s="10" t="s">
+      <c r="N130" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B131" s="15">
+    <row r="131" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B131" s="11">
         <v>107</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -9271,12 +10505,12 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="4"/>
-      <c r="N131" s="10" t="s">
+      <c r="N131" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B132" s="15">
+    <row r="132" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B132" s="11">
         <v>108</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -9306,97 +10540,97 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="4"/>
-      <c r="N132" s="10" t="s">
+      <c r="N132" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="2:14" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="38">
+    <row r="133" spans="2:14" ht="174.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B133" s="27">
         <v>109</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D133" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="E133" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F133" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H133" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J133" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="24" t="s">
+      <c r="F133" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="33"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
-      <c r="L134" s="34"/>
-      <c r="M134" s="34"/>
-      <c r="N134" s="35"/>
-    </row>
-    <row r="135" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B135" s="15">
+    <row r="134" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B134" s="73"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="74"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="74"/>
+      <c r="K134" s="74"/>
+      <c r="L134" s="74"/>
+      <c r="M134" s="74"/>
+      <c r="N134" s="75"/>
+    </row>
+    <row r="135" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B135" s="11">
         <v>110</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F135" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I135" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J135" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="23" t="s">
+      <c r="F135" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B136" s="15">
+    <row r="136" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B136" s="11">
         <v>111</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -9426,42 +10660,42 @@
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="4"/>
-      <c r="N136" s="10" t="s">
+      <c r="N136" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="2:14" ht="219.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="15">
+    <row r="137" spans="2:14" ht="219.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="11">
         <v>112</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E137" s="13" t="s">
+      <c r="E137" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J137" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="24" t="s">
+      <c r="F137" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="16" t="s">
         <v>169</v>
       </c>
     </row>
